--- a/public/pre_inscripciones.xlsx
+++ b/public/pre_inscripciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
   <si>
     <t>CODIGO</t>
   </si>
@@ -161,18 +161,9 @@
     <t xml:space="preserve">123412342134 </t>
   </si>
   <si>
-    <t>13641642</t>
-  </si>
-  <si>
     <t>OR</t>
   </si>
   <si>
-    <t>ACHA</t>
-  </si>
-  <si>
-    <t>TEJADA</t>
-  </si>
-  <si>
     <t>DONALD TRUMP</t>
   </si>
   <si>
@@ -182,121 +173,208 @@
     <t>H</t>
   </si>
   <si>
-    <t>msacha@est.lasalle.edu.bo</t>
+    <t>TARIJA</t>
+  </si>
+  <si>
+    <t>ARCE</t>
+  </si>
+  <si>
+    <t>2022-11-11</t>
+  </si>
+  <si>
+    <t>NO PERTENECE</t>
+  </si>
+  <si>
+    <t>1 A 2 VECES</t>
+  </si>
+  <si>
+    <t>A PIE</t>
+  </si>
+  <si>
+    <t>&lt; A 1/2 HORA</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80730495200991A </t>
+  </si>
+  <si>
+    <t>fscarrion@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>CARRION</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>FARID SEBASTIAN</t>
+  </si>
+  <si>
+    <t>CARRION VARGAS FARID SEBASTIAN</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
   <si>
     <t>BOLIVIA</t>
   </si>
   <si>
-    <t>TARIJA</t>
-  </si>
-  <si>
-    <t>ARCE</t>
+    <t xml:space="preserve">LA PAZ </t>
+  </si>
+  <si>
+    <t>MURILLO</t>
+  </si>
+  <si>
+    <t>NUESTRA SEÑORA DE LA PAZ</t>
+  </si>
+  <si>
+    <t>2005-03-09</t>
+  </si>
+  <si>
+    <t>2-2005</t>
+  </si>
+  <si>
+    <t>CAPITAL (LA PAZ)</t>
   </si>
   <si>
     <t>LA PAZ - CIUDAD LA PAZ</t>
   </si>
   <si>
-    <t>2022-11-11</t>
-  </si>
-  <si>
-    <t>20101020</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>MURILLO</t>
-  </si>
-  <si>
-    <t>CAPITAL (LA PAZ)</t>
-  </si>
-  <si>
-    <t>ALTO OBRAJES</t>
-  </si>
-  <si>
-    <t>SECTOR B CALLE OCTAVIO LINARES</t>
-  </si>
-  <si>
-    <t>1204</t>
-  </si>
-  <si>
-    <t>2731837</t>
-  </si>
-  <si>
-    <t>NO PERTENECE</t>
-  </si>
-  <si>
-    <t>1 A 2 VECES</t>
-  </si>
-  <si>
-    <t>A PIE</t>
-  </si>
-  <si>
-    <t>&lt; A 1/2 HORA</t>
-  </si>
-  <si>
-    <t>ACTIVO</t>
-  </si>
-  <si>
-    <t>80730715</t>
-  </si>
-  <si>
-    <t>LP</t>
-  </si>
-  <si>
-    <t>JOSE AGUSTIN</t>
-  </si>
-  <si>
-    <t>GOMEZ</t>
+    <t>VILLA COPACABANA</t>
+  </si>
+  <si>
+    <t>AVENIDA COSTANERA</t>
+  </si>
+  <si>
+    <t>3 a 5 veces</t>
+  </si>
+  <si>
+    <t>VEHICULO</t>
+  </si>
+  <si>
+    <t>1/2 a 1 hora</t>
+  </si>
+  <si>
+    <t>JUSTO MARCELO</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
   </si>
   <si>
     <t>CASTELLANO</t>
   </si>
   <si>
-    <t>AUDITOR</t>
-  </si>
-  <si>
-    <t>MASTERADO</t>
-  </si>
-  <si>
-    <t>jagustin@gmail.com</t>
-  </si>
-  <si>
-    <t>PADRE</t>
-  </si>
-  <si>
-    <t>SOELY</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>SECRETARIA</t>
-  </si>
-  <si>
-    <t>TECNICO SUPERIOR</t>
-  </si>
-  <si>
-    <t>tejada@gmail.com</t>
-  </si>
-  <si>
-    <t>MADRE</t>
-  </si>
-  <si>
-    <t>Si</t>
+    <t>ING. AGRONOMO</t>
+  </si>
+  <si>
+    <t>POST GRADO</t>
+  </si>
+  <si>
+    <t>marce_carrion_2005@yahoo.com</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>CARLA FELICIDAD</t>
+  </si>
+  <si>
+    <t>EGUIVAR</t>
+  </si>
+  <si>
+    <t>INFORMATICA</t>
+  </si>
+  <si>
+    <t>UNIVERSITARIO</t>
+  </si>
+  <si>
+    <t>Madre</t>
   </si>
   <si>
     <t>S6A</t>
   </si>
   <si>
-    <t>MAÑANA</t>
-  </si>
-  <si>
-    <t>PRIMARIO</t>
+    <t>Mañana</t>
+  </si>
+  <si>
+    <t>Secundaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807307152009120 </t>
+  </si>
+  <si>
+    <t>vcfernandez@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>MALDONADO</t>
+  </si>
+  <si>
+    <t>VALENTINA CAMILA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ MALDONADO VALENTINA CAMILA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>2004-08-17</t>
+  </si>
+  <si>
+    <t>2-2004</t>
+  </si>
+  <si>
+    <t>ACHUMANI</t>
+  </si>
+  <si>
+    <t>F DEPARTAMENTO C</t>
+  </si>
+  <si>
+    <t>4C</t>
+  </si>
+  <si>
+    <t>MESTIZO</t>
+  </si>
+  <si>
+    <t>1 a 2 veces</t>
+  </si>
+  <si>
+    <t>&lt; a 1/2 hora</t>
+  </si>
+  <si>
+    <t>WILFREDO MANFRED</t>
+  </si>
+  <si>
+    <t>PEÑARANDA</t>
+  </si>
+  <si>
+    <t>ABOGADO</t>
+  </si>
+  <si>
+    <t>MONICA KARINA</t>
+  </si>
+  <si>
+    <t>BOLEA</t>
+  </si>
+  <si>
+    <t>ABOGADA</t>
+  </si>
+  <si>
+    <t>LICENCIATURA</t>
+  </si>
+  <si>
+    <t>monikawi@hotmail.com</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>S6B</t>
   </si>
 </sst>
 </file>
@@ -928,7 +1006,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="BO8" sqref="BO8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="true" defaultRowHeight="15.75" defaultColWidth="14.42578125" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1177,205 +1255,397 @@
       <c r="B2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>49</v>
       </c>
-      <c r="E2"/>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="J2" t="s">
+      <c r="Q2" t="s">
         <v>54</v>
       </c>
-      <c r="K2" t="s">
+      <c r="AC2" t="s">
         <v>55</v>
       </c>
-      <c r="L2">
-        <v>76543210</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="AD2" t="s">
         <v>56</v>
       </c>
-      <c r="N2" t="s">
+      <c r="AE2" t="s">
         <v>57</v>
       </c>
-      <c r="O2" t="s">
+      <c r="AF2" t="s">
         <v>58</v>
-      </c>
-      <c r="P2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T2" t="s">
-        <v>63</v>
-      </c>
-      <c r="U2" t="s">
-        <v>63</v>
-      </c>
-      <c r="V2" t="s">
-        <v>64</v>
-      </c>
-      <c r="W2" t="s">
-        <v>65</v>
-      </c>
-      <c r="X2" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>51</v>
       </c>
       <c r="AJ2">
         <v>1234234</v>
       </c>
-      <c r="AK2">
-        <v>2341</v>
-      </c>
-      <c r="AL2">
-        <v>1234567</v>
-      </c>
-      <c r="AM2" t="s">
+      <c r="AQ2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BM2" s="18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" customHeight="1" ht="12.75">
+      <c r="A3" s="1">
+        <v>250504</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3">
+        <v>11108040</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>71</v>
+      </c>
+      <c r="R3">
+        <v>210072</v>
+      </c>
+      <c r="S3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3">
+        <v>52</v>
+      </c>
+      <c r="U3">
+        <v>52</v>
+      </c>
+      <c r="V3" t="s">
+        <v>69</v>
+      </c>
+      <c r="W3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s">
         <v>76</v>
       </c>
-      <c r="AN2" t="s">
+      <c r="AA3">
+        <v>1229</v>
+      </c>
+      <c r="AB3">
+        <v>2270455</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD3" t="s">
         <v>77</v>
       </c>
-      <c r="AO2" t="s">
-        <v>50</v>
-      </c>
-      <c r="AP2" t="s">
+      <c r="AE3" t="s">
         <v>78</v>
       </c>
-      <c r="AQ2" s="2">
-        <v>32791</v>
-      </c>
-      <c r="AR2" t="s">
+      <c r="AF3" t="s">
         <v>79</v>
       </c>
-      <c r="AS2" t="s">
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>80730715</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ3">
+        <v>3387561</v>
+      </c>
+      <c r="AK3">
+        <v>2531</v>
+      </c>
+      <c r="AL3">
+        <v>3387561</v>
+      </c>
+      <c r="AN3" t="s">
         <v>80</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AO3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP3" t="s">
         <v>81</v>
       </c>
-      <c r="AU2">
-        <v>76847851</v>
-      </c>
-      <c r="AV2">
-        <v>2206598</v>
-      </c>
-      <c r="AW2" t="s">
+      <c r="AR3" t="s">
         <v>82</v>
       </c>
-      <c r="AX2" t="s">
+      <c r="AS3" t="s">
         <v>83</v>
       </c>
-      <c r="AY2">
-        <v>2342</v>
-      </c>
-      <c r="AZ2">
-        <v>98765432</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BB2" t="s">
+      <c r="AT3" t="s">
         <v>84</v>
       </c>
-      <c r="BC2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD2" t="s">
+      <c r="AU3">
+        <v>73022229</v>
+      </c>
+      <c r="AW3" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" s="2">
-        <v>33862</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>79</v>
-      </c>
-      <c r="BG2" t="s">
+      <c r="AX3" t="s">
         <v>86</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="AY3">
+        <v>2532</v>
+      </c>
+      <c r="AZ3">
+        <v>4272963</v>
+      </c>
+      <c r="BB3" t="s">
         <v>87</v>
       </c>
-      <c r="BI2">
-        <v>78946213</v>
-      </c>
-      <c r="BJ2">
-        <v>2265487</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="BC3" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD3" t="s">
         <v>88</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BF3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG3" t="s">
         <v>89</v>
       </c>
-      <c r="BM2" s="18" t="s">
+      <c r="BH3" t="s">
         <v>90</v>
       </c>
-      <c r="BN2" s="1" t="s">
+      <c r="BJ3">
+        <v>73032007</v>
+      </c>
+      <c r="BL3" t="s">
         <v>91</v>
       </c>
-      <c r="BO2" s="1" t="s">
+      <c r="BM3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="BN3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="BP2" s="1" t="s">
+      <c r="BO3" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="BP3" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" customHeight="1" ht="12.75"/>
-    <row r="4" spans="1:68" customHeight="1" ht="12.75"/>
+    <row r="4" spans="1:68" customHeight="1" ht="12.75">
+      <c r="A4" s="1">
+        <v>248743</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4">
+        <v>12480693</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" t="s">
+        <v>67</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>102</v>
+      </c>
+      <c r="R4">
+        <v>210092</v>
+      </c>
+      <c r="S4" t="s">
+        <v>103</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH4">
+        <v>80730715</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AJ4">
+        <v>3422347012</v>
+      </c>
+      <c r="AK4">
+        <v>2809</v>
+      </c>
+      <c r="AL4">
+        <v>3422347</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>112</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU4">
+        <v>72004638</v>
+      </c>
+      <c r="AV4">
+        <v>70144014</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY4">
+        <v>1349</v>
+      </c>
+      <c r="AZ4">
+        <v>4285243</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>113</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>98</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>114</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>116</v>
+      </c>
+      <c r="BJ4">
+        <v>77209767</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>117</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM4" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="5" spans="1:68" customHeight="1" ht="12.75"/>
     <row r="6" spans="1:68" customHeight="1" ht="12.75"/>
     <row r="7" spans="1:68" customHeight="1" ht="12.75"/>

--- a/public/pre_inscripciones.xlsx
+++ b/public/pre_inscripciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
   <si>
     <t>CODIGO</t>
   </si>
@@ -194,187 +194,322 @@
     <t>&lt; A 1/2 HORA</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80730495200991A </t>
+  </si>
+  <si>
+    <t>fscarrion@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>CARRION</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>FARID SEBASTIAN</t>
+  </si>
+  <si>
+    <t>CARRION VARGAS FARID SEBASTIAN</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>BOLIVIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LA PAZ </t>
+  </si>
+  <si>
+    <t>MURILLO</t>
+  </si>
+  <si>
+    <t>NUESTRA SEÑORA DE LA PAZ</t>
+  </si>
+  <si>
+    <t>2005-03-09</t>
+  </si>
+  <si>
+    <t>2-2005</t>
+  </si>
+  <si>
+    <t>CAPITAL (LA PAZ)</t>
+  </si>
+  <si>
+    <t>LA PAZ - CIUDAD LA PAZ</t>
+  </si>
+  <si>
+    <t>VILLA COPACABANA</t>
+  </si>
+  <si>
+    <t>AVENIDA COSTANERA</t>
+  </si>
+  <si>
+    <t>3 a 5 veces</t>
+  </si>
+  <si>
+    <t>VEHICULO</t>
+  </si>
+  <si>
+    <t>1/2 a 1 hora</t>
+  </si>
+  <si>
+    <t>JUSTO MARCELO</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>CASTELLANO</t>
+  </si>
+  <si>
+    <t>ING. AGRONOMO</t>
+  </si>
+  <si>
+    <t>POST GRADO</t>
+  </si>
+  <si>
+    <t>marce_carrion_2005@yahoo.com</t>
+  </si>
+  <si>
+    <t>Padre</t>
+  </si>
+  <si>
+    <t>CARLA FELICIDAD</t>
+  </si>
+  <si>
+    <t>EGUIVAR</t>
+  </si>
+  <si>
+    <t>INFORMATICA</t>
+  </si>
+  <si>
+    <t>UNIVERSITARIO</t>
+  </si>
+  <si>
+    <t>Madre</t>
+  </si>
+  <si>
+    <t>S6A</t>
+  </si>
+  <si>
+    <t>Mañana</t>
+  </si>
+  <si>
+    <t>Secundaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8073071520211039 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0061142 </t>
+  </si>
+  <si>
+    <t>tvdelgadoo@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>DELGADO</t>
+  </si>
+  <si>
+    <t>OSSIPOVA</t>
+  </si>
+  <si>
+    <t>TIZIANA VICTORIA</t>
+  </si>
+  <si>
+    <t>DELGADO OSSIPOVA TIZIANA VICTORIA</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>PANAMA</t>
+  </si>
+  <si>
+    <t>2007-02-16</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>LA PAZ</t>
+  </si>
+  <si>
+    <t>SAN MIGUEL</t>
+  </si>
+  <si>
+    <t>AV MONTENEGRO edificio Emporio</t>
+  </si>
+  <si>
+    <t>MESTIZO</t>
+  </si>
+  <si>
+    <t>1 a 2 veces</t>
+  </si>
+  <si>
+    <t>&lt; a 1/2 hora</t>
+  </si>
+  <si>
+    <t>LOUIS DELGADO</t>
+  </si>
+  <si>
+    <t>8-507-267</t>
+  </si>
+  <si>
+    <t>LOUIS MILTON</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>DIPLOMATICO</t>
+  </si>
+  <si>
+    <t>E-8-107644</t>
+  </si>
+  <si>
+    <t>DARIA</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>INDEPENDIENTE</t>
+  </si>
+  <si>
+    <t>S4B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8073071520101546 </t>
+  </si>
+  <si>
+    <t>sjbustillos@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>BUSTILLOS</t>
+  </si>
+  <si>
+    <t>CAMARGO</t>
+  </si>
+  <si>
+    <t>SANTIAGO JOSE</t>
+  </si>
+  <si>
+    <t>BUSTILLOS CAMARGO SANTIAGO JOSE</t>
+  </si>
+  <si>
+    <t>NUESTRA SEÑÓRA DE LA PAZ</t>
+  </si>
+  <si>
+    <t>2005-05-08</t>
+  </si>
+  <si>
+    <t>IRPAVI</t>
+  </si>
+  <si>
+    <t>VERGEL CALLE 3</t>
+  </si>
+  <si>
+    <t>JOSE RODOLFO</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>MEDICO</t>
+  </si>
+  <si>
+    <t>pepebustillos@hotmail.com</t>
+  </si>
+  <si>
+    <t>MARGARITA CARLOSOVNA</t>
+  </si>
+  <si>
+    <t>DODONOVA</t>
+  </si>
+  <si>
     <t>Si</t>
   </si>
   <si>
-    <t xml:space="preserve">80730495200991A </t>
-  </si>
-  <si>
-    <t>fscarrion@est.lasalle.edu.bo</t>
-  </si>
-  <si>
-    <t>CARRION</t>
-  </si>
-  <si>
-    <t>VARGAS</t>
-  </si>
-  <si>
-    <t>FARID SEBASTIAN</t>
-  </si>
-  <si>
-    <t>CARRION VARGAS FARID SEBASTIAN</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>BOLIVIA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LA PAZ </t>
-  </si>
-  <si>
-    <t>MURILLO</t>
-  </si>
-  <si>
-    <t>NUESTRA SEÑORA DE LA PAZ</t>
-  </si>
-  <si>
-    <t>2005-03-09</t>
-  </si>
-  <si>
-    <t>2-2005</t>
-  </si>
-  <si>
-    <t>CAPITAL (LA PAZ)</t>
-  </si>
-  <si>
-    <t>LA PAZ - CIUDAD LA PAZ</t>
-  </si>
-  <si>
-    <t>VILLA COPACABANA</t>
-  </si>
-  <si>
-    <t>AVENIDA COSTANERA</t>
-  </si>
-  <si>
-    <t>3 a 5 veces</t>
-  </si>
-  <si>
-    <t>VEHICULO</t>
-  </si>
-  <si>
-    <t>1/2 a 1 hora</t>
-  </si>
-  <si>
-    <t>JUSTO MARCELO</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>CASTELLANO</t>
-  </si>
-  <si>
-    <t>ING. AGRONOMO</t>
-  </si>
-  <si>
-    <t>POST GRADO</t>
-  </si>
-  <si>
-    <t>marce_carrion_2005@yahoo.com</t>
-  </si>
-  <si>
-    <t>Padre</t>
-  </si>
-  <si>
-    <t>CARLA FELICIDAD</t>
-  </si>
-  <si>
-    <t>EGUIVAR</t>
-  </si>
-  <si>
-    <t>INFORMATICA</t>
-  </si>
-  <si>
-    <t>UNIVERSITARIO</t>
-  </si>
-  <si>
-    <t>Madre</t>
-  </si>
-  <si>
-    <t>S6A</t>
-  </si>
-  <si>
-    <t>Mañana</t>
-  </si>
-  <si>
-    <t>Secundaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">807307152009120 </t>
-  </si>
-  <si>
-    <t>vcfernandez@est.lasalle.edu.bo</t>
-  </si>
-  <si>
-    <t>FERNANDEZ</t>
-  </si>
-  <si>
-    <t>MALDONADO</t>
-  </si>
-  <si>
-    <t>VALENTINA CAMILA</t>
-  </si>
-  <si>
-    <t>FERNANDEZ MALDONADO VALENTINA CAMILA</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>2004-08-17</t>
-  </si>
-  <si>
-    <t>2-2004</t>
-  </si>
-  <si>
-    <t>ACHUMANI</t>
-  </si>
-  <si>
-    <t>F DEPARTAMENTO C</t>
-  </si>
-  <si>
-    <t>4C</t>
-  </si>
-  <si>
-    <t>MESTIZO</t>
-  </si>
-  <si>
-    <t>1 a 2 veces</t>
-  </si>
-  <si>
-    <t>&lt; a 1/2 hora</t>
-  </si>
-  <si>
-    <t>WILFREDO MANFRED</t>
-  </si>
-  <si>
-    <t>PEÑARANDA</t>
-  </si>
-  <si>
-    <t>ABOGADO</t>
-  </si>
-  <si>
-    <t>MONICA KARINA</t>
-  </si>
-  <si>
-    <t>BOLEA</t>
-  </si>
-  <si>
-    <t>ABOGADA</t>
+    <t>S5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80730715201512234 </t>
+  </si>
+  <si>
+    <t>dmviveros@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>VIVEROS</t>
+  </si>
+  <si>
+    <t>AGUIRRE</t>
+  </si>
+  <si>
+    <t>DIEGO MATIAS</t>
+  </si>
+  <si>
+    <t>VIVEROS AGUIRRE DIEGO MATIAS</t>
+  </si>
+  <si>
+    <t>BOL</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>NTRA. SEÑORA DE LA PAZ</t>
+  </si>
+  <si>
+    <t>2011-02-03</t>
+  </si>
+  <si>
+    <t>OBRAJES</t>
+  </si>
+  <si>
+    <t>AV. LOS SARGENTOS</t>
+  </si>
+  <si>
+    <t>100 A</t>
+  </si>
+  <si>
+    <t>NINGUNA</t>
+  </si>
+  <si>
+    <t>RILBER VIVEROS BILBAO LA VIEJA</t>
+  </si>
+  <si>
+    <t>RILBER</t>
+  </si>
+  <si>
+    <t>BILBAO LA VIEJA</t>
+  </si>
+  <si>
+    <t>CONTADOR</t>
   </si>
   <si>
     <t>LICENCIATURA</t>
   </si>
   <si>
-    <t>monikawi@hotmail.com</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>S6B</t>
+    <t>gigiopc@hotmail.com.bo</t>
+  </si>
+  <si>
+    <t>KAREN VIVIANA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>kapmoidie@gmail.com</t>
+  </si>
+  <si>
+    <t>P6A</t>
+  </si>
+  <si>
+    <t>Primario</t>
   </si>
 </sst>
 </file>
@@ -1475,169 +1610,166 @@
     </row>
     <row r="4" spans="1:68" customHeight="1" ht="12.75">
       <c r="A4" s="1">
-        <v>248743</v>
+        <v>265473</v>
       </c>
       <c r="B4" t="s">
         <v>95</v>
       </c>
-      <c r="C4">
-        <v>12480693</v>
+      <c r="C4" t="s">
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="O4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="P4" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="Q4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="R4">
-        <v>210092</v>
-      </c>
-      <c r="S4" t="s">
-        <v>103</v>
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>1122</v>
       </c>
       <c r="T4">
-        <v>8</v>
-      </c>
-      <c r="U4">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="U4" t="s">
+        <v>105</v>
       </c>
       <c r="V4" t="s">
         <v>69</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="Y4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Z4" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>106</v>
+        <v>108</v>
+      </c>
+      <c r="AA4">
+        <v>201</v>
       </c>
       <c r="AC4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AD4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AE4" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="AF4" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="AG4">
+        <v>-1</v>
       </c>
       <c r="AH4">
         <v>80730715</v>
       </c>
       <c r="AI4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="AJ4">
-        <v>3422347012</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>2809</v>
-      </c>
-      <c r="AL4">
-        <v>3422347</v>
+        <v>4224</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>113</v>
       </c>
       <c r="AN4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AO4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AP4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="AR4" t="s">
         <v>82</v>
       </c>
       <c r="AS4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="AT4" t="s">
         <v>84</v>
       </c>
       <c r="AU4">
-        <v>72004638</v>
-      </c>
-      <c r="AV4">
-        <v>70144014</v>
+        <v>77220472</v>
       </c>
       <c r="AX4" t="s">
         <v>86</v>
       </c>
       <c r="AY4">
-        <v>1349</v>
-      </c>
-      <c r="AZ4">
-        <v>4285243</v>
+        <v>4225</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>117</v>
       </c>
       <c r="BB4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="BC4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="BD4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="BF4" t="s">
         <v>82</v>
       </c>
       <c r="BG4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="BH4" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="BJ4">
-        <v>77209767</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>117</v>
+        <v>77222839</v>
       </c>
       <c r="BL4" t="s">
         <v>91</v>
       </c>
       <c r="BM4" s="18" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="BN4" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="BO4" s="1" t="s">
         <v>93</v>
@@ -1646,8 +1778,367 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:68" customHeight="1" ht="12.75"/>
-    <row r="6" spans="1:68" customHeight="1" ht="12.75"/>
+    <row r="5" spans="1:68" customHeight="1" ht="12.75">
+      <c r="A5" s="1">
+        <v>250832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C5">
+        <v>6963677</v>
+      </c>
+      <c r="E5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" t="s">
+        <v>127</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
+        <v>68</v>
+      </c>
+      <c r="O5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P5" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>129</v>
+      </c>
+      <c r="R5">
+        <v>210051</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5">
+        <v>48</v>
+      </c>
+      <c r="U5">
+        <v>48</v>
+      </c>
+      <c r="V5" t="s">
+        <v>69</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA5">
+        <v>5</v>
+      </c>
+      <c r="AB5">
+        <v>2722302</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>80730715</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ5">
+        <v>3111770019</v>
+      </c>
+      <c r="AK5">
+        <v>2351</v>
+      </c>
+      <c r="AL5">
+        <v>3370414</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AU5">
+        <v>70614643</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>135</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY5">
+        <v>2352</v>
+      </c>
+      <c r="AZ5">
+        <v>3111770</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>125</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>137</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>134</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5">
+        <v>70617072</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68" customHeight="1" ht="12.75">
+      <c r="A6" s="1">
+        <v>247412</v>
+      </c>
+      <c r="B6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6">
+        <v>10937462</v>
+      </c>
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" t="s">
+        <v>145</v>
+      </c>
+      <c r="J6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O6" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>149</v>
+      </c>
+      <c r="R6">
+        <v>20101020</v>
+      </c>
+      <c r="S6">
+        <v>27</v>
+      </c>
+      <c r="T6">
+        <v>64</v>
+      </c>
+      <c r="U6">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" t="s">
+        <v>73</v>
+      </c>
+      <c r="X6" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB6">
+        <v>2789163</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>80730715</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ6">
+        <v>4377505</v>
+      </c>
+      <c r="AK6">
+        <v>1536</v>
+      </c>
+      <c r="AL6">
+        <v>4377505</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU6">
+        <v>72027667</v>
+      </c>
+      <c r="AV6">
+        <v>2623400</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY6">
+        <v>1537</v>
+      </c>
+      <c r="AZ6">
+        <v>4857835</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>160</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>143</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>161</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG6" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI6">
+        <v>69820104</v>
+      </c>
+      <c r="BJ6">
+        <v>71526236</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL6" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM6" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BO6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP6" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
     <row r="7" spans="1:68" customHeight="1" ht="12.75"/>
     <row r="8" spans="1:68" customHeight="1" ht="12.75"/>
     <row r="9" spans="1:68" customHeight="1" ht="12.75"/>

--- a/public/pre_inscripciones.xlsx
+++ b/public/pre_inscripciones.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
   <si>
     <t>CODIGO</t>
   </si>
@@ -510,6 +510,138 @@
   </si>
   <si>
     <t>Primario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807303852010959 </t>
+  </si>
+  <si>
+    <t>mcescobar@est.lasalle.edu.bo</t>
+  </si>
+  <si>
+    <t>ESCOBAR</t>
+  </si>
+  <si>
+    <t>ZAMBRANA</t>
+  </si>
+  <si>
+    <t>MARIA CELESTE</t>
+  </si>
+  <si>
+    <t>ESCOBAR ZAMBRANA MARIA CELESTE</t>
+  </si>
+  <si>
+    <t>2005-09-04</t>
+  </si>
+  <si>
+    <t>8-2005</t>
+  </si>
+  <si>
+    <t>PEDREGAL</t>
+  </si>
+  <si>
+    <t>CALLE OLIVOS</t>
+  </si>
+  <si>
+    <t>ANGEL REYNALDO</t>
+  </si>
+  <si>
+    <t>MOYATA</t>
+  </si>
+  <si>
+    <t>COMERCIANTE</t>
+  </si>
+  <si>
+    <t>aescobar2@gmail.com</t>
+  </si>
+  <si>
+    <t>MIRIAM BEATRIZ</t>
+  </si>
+  <si>
+    <t>PEÑALOZA</t>
+  </si>
+  <si>
+    <t>MAESTRA</t>
+  </si>
+  <si>
+    <t>zambranaescobar@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">807304602016202A </t>
+  </si>
+  <si>
+    <t>28.209.601-5</t>
+  </si>
+  <si>
+    <t>IJGONZALES@EST.LASALLE.EDU.BO</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>SANGA</t>
+  </si>
+  <si>
+    <t>INES JULIA</t>
+  </si>
+  <si>
+    <t>GONZALES SANGA INES JULIA</t>
+  </si>
+  <si>
+    <t>BRAZIL</t>
+  </si>
+  <si>
+    <t>NINGUNO</t>
+  </si>
+  <si>
+    <t>RIO DE JANEIRO - BRAZIL</t>
+  </si>
+  <si>
+    <t>2010-04-20</t>
+  </si>
+  <si>
+    <t>BRA-03</t>
+  </si>
+  <si>
+    <t>1-2013</t>
+  </si>
+  <si>
+    <t>ALTO SAN PEDRO</t>
+  </si>
+  <si>
+    <t>PLAZA JOSEFA MUJIA</t>
+  </si>
+  <si>
+    <t>GERMAN GONZALES</t>
+  </si>
+  <si>
+    <t>GERMAN LUIS</t>
+  </si>
+  <si>
+    <t>MAMANI</t>
+  </si>
+  <si>
+    <t>ING. CIVIL</t>
+  </si>
+  <si>
+    <t>germangonzales@lp.upb.edu</t>
+  </si>
+  <si>
+    <t>CARMINIA ANDREA</t>
+  </si>
+  <si>
+    <t>GOMEZ</t>
+  </si>
+  <si>
+    <t>ING. COMERCIAL</t>
+  </si>
+  <si>
+    <t>carmiandrea@hotmail.com</t>
+  </si>
+  <si>
+    <t>MADRE</t>
+  </si>
+  <si>
+    <t>S1A</t>
   </si>
 </sst>
 </file>
@@ -2139,8 +2271,364 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:68" customHeight="1" ht="12.75"/>
-    <row r="8" spans="1:68" customHeight="1" ht="12.75"/>
+    <row r="7" spans="1:68" customHeight="1" ht="12.75">
+      <c r="A7" s="1">
+        <v>262496</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7">
+        <v>11106466</v>
+      </c>
+      <c r="E7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H7" t="s">
+        <v>169</v>
+      </c>
+      <c r="I7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M7" t="s">
+        <v>67</v>
+      </c>
+      <c r="N7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>171</v>
+      </c>
+      <c r="R7">
+        <v>210133</v>
+      </c>
+      <c r="S7" t="s">
+        <v>172</v>
+      </c>
+      <c r="T7">
+        <v>65</v>
+      </c>
+      <c r="U7">
+        <v>65</v>
+      </c>
+      <c r="V7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W7" t="s">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA7">
+        <v>620</v>
+      </c>
+      <c r="AB7">
+        <v>79558262</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>80730385</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AJ7">
+        <v>4310431</v>
+      </c>
+      <c r="AK7">
+        <v>2021</v>
+      </c>
+      <c r="AL7">
+        <v>3480702</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>175</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU7">
+        <v>70519391</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>178</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY7">
+        <v>2022</v>
+      </c>
+      <c r="AZ7">
+        <v>4310431</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>179</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>168</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>180</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ7">
+        <v>75885262</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>91</v>
+      </c>
+      <c r="BM7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68" customHeight="1" ht="12.75">
+      <c r="A8" s="1">
+        <v>262614</v>
+      </c>
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E8" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I8" t="s">
+        <v>189</v>
+      </c>
+      <c r="J8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M8" t="s">
+        <v>190</v>
+      </c>
+      <c r="N8" t="s">
+        <v>191</v>
+      </c>
+      <c r="O8" t="s">
+        <v>191</v>
+      </c>
+      <c r="P8" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>193</v>
+      </c>
+      <c r="R8" t="s">
+        <v>194</v>
+      </c>
+      <c r="S8" t="s">
+        <v>195</v>
+      </c>
+      <c r="T8">
+        <v>50</v>
+      </c>
+      <c r="U8">
+        <v>50</v>
+      </c>
+      <c r="V8" t="s">
+        <v>69</v>
+      </c>
+      <c r="W8" t="s">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA8">
+        <v>188</v>
+      </c>
+      <c r="AB8">
+        <v>2488272</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG8">
+        <v>1</v>
+      </c>
+      <c r="AH8">
+        <v>88073046</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>198</v>
+      </c>
+      <c r="AJ8">
+        <v>3506134012</v>
+      </c>
+      <c r="AK8">
+        <v>2029</v>
+      </c>
+      <c r="AL8">
+        <v>3506134</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>199</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>186</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU8">
+        <v>67262662</v>
+      </c>
+      <c r="AV8">
+        <v>2170000</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>202</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AY8">
+        <v>2030</v>
+      </c>
+      <c r="AZ8">
+        <v>3396002</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>203</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>187</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>204</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BG8" t="s">
+        <v>205</v>
+      </c>
+      <c r="BI8">
+        <v>2200139</v>
+      </c>
+      <c r="BJ8">
+        <v>63202044</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>206</v>
+      </c>
+      <c r="BL8" t="s">
+        <v>207</v>
+      </c>
+      <c r="BM8" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="BN8" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="BO8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BP8" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="9" spans="1:68" customHeight="1" ht="12.75"/>
     <row r="10" spans="1:68" customHeight="1" ht="12.75"/>
     <row r="11" spans="1:68" customHeight="1" ht="12.75"/>
